--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2118134.02223962</v>
+        <v>2242053.991151115</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5330935.851881558</v>
+        <v>5617028.50529763</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>165.3373054727724</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>148.5443072429911</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -722,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>135.4310977608185</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>209.2040345192266</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>356.5860264564682</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>41.04246646044922</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>8.561658968975081</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>272.0650123527858</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>136.2149399045257</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>32.36127543482664</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>17.84065341776959</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.6211969053086</v>
+        <v>422.0365747800607</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.99078056551</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1537,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1579,7 +1581,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>81.49380289235384</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1588,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>195.676953389954</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>7.863784938572161</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>186.7535668023739</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>133.9986524434728</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1844,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791319859</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,10 +1903,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2081,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2096,10 +2098,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,16 +2140,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480015835</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>71.49788411901469</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2476,19 +2478,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>30.11288841831338</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>115.7595572938008</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>54.66258501924847</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>59.41244209702454</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>48.25041423584346</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>35.5167825707945</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.17722654850338</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3667,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>162.91190519162</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>332.6877315897526</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023221</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208605</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.990780565511</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>49.98562885870429</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.498727323736</v>
+        <v>687.7796263806116</v>
       </c>
       <c r="C2" t="n">
-        <v>957.3966585475634</v>
+        <v>520.7722471151849</v>
       </c>
       <c r="D2" t="n">
-        <v>925.527277762412</v>
+        <v>488.9028663300335</v>
       </c>
       <c r="E2" t="n">
-        <v>496.9456034996804</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>473.1185779492922</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,16 +4330,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>1697.183430080417</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N2" t="n">
         <v>1697.183430080417</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1133.426975905747</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>714.2845124850579</v>
       </c>
       <c r="Y2" t="n">
-        <v>1417.798297808644</v>
+        <v>710.0387928251154</v>
       </c>
     </row>
     <row r="3">
@@ -4416,19 +4418,19 @@
         <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N3" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>454.0728855995826</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="C4" t="n">
-        <v>454.0728855995826</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="D4" t="n">
-        <v>288.1948928011053</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E4" t="n">
-        <v>288.1948928011053</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4486,16 +4488,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
         <v>761.8145120199619</v>
@@ -4513,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.86622349534</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1198.91071536577</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>926.8843109520619</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X4" t="n">
-        <v>681.4925562854744</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="Y4" t="n">
-        <v>454.0728855995826</v>
+        <v>741.6032097962661</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6470431118091</v>
+        <v>1308.499575293582</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5449743356364</v>
+        <v>1274.397506517409</v>
       </c>
       <c r="D5" t="n">
-        <v>780.675593550485</v>
+        <v>838.4877216918535</v>
       </c>
       <c r="E5" t="n">
-        <v>750.9412527491843</v>
+        <v>478.2998161802694</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>1294.102365436318</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="N5" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720801</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S5" t="n">
-        <v>1655.726393251681</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="T5" t="n">
-        <v>1655.726393251681</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="U5" t="n">
-        <v>1655.726393251681</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="V5" t="n">
-        <v>1293.109443185507</v>
+        <v>2159.002379407684</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.294392636945</v>
+        <v>1754.146924818717</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.192333256659</v>
+        <v>1335.004461398028</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9062095563129</v>
+        <v>1330.758741738086</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326468</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993476</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.5714734656729</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>301.0097619488978</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>301.0097619488978</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>131.2517581996351</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>131.2517581996351</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K7" t="n">
-        <v>89.90148899448771</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1143.991608255758</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1586.250411413402</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2005.919660639184</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609525</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.20150817923</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477226</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477226</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477226</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.39009218466</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.7796263806115</v>
+        <v>978.7890572316419</v>
       </c>
       <c r="C8" t="n">
-        <v>653.6775576044388</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D8" t="n">
-        <v>225.0958833417071</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>195.3615425404064</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>171.5345169900181</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1134.24202645431</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>729.3865718653431</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>714.2845124850578</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.0387928251153</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1605.602207829152</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>714.6817019292769</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>542.1199904125018</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>376.2419976140245</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1653.213838276079</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1653.213838276079</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.744746747638</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1657.744746747638</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1379.311746000743</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1379.311746000743</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.311746000743</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1133.919991334156</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.5003206482641</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2064.217558403193</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035995</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035995</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3586.813433454082</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3224.196483387908</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W11" t="n">
-        <v>2819.341028798942</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X11" t="n">
-        <v>2400.198565378253</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y11" t="n">
-        <v>2400.198565378253</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>838.586545475633</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>666.0248339588579</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>500.1468411603806</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>330.3888374111178</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>330.3888374111178</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7975624369455</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.258586696244</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.82558594935</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.87007781978</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W13" t="n">
-        <v>1503.216589547099</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X13" t="n">
-        <v>1257.824834880512</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y13" t="n">
-        <v>1030.40516419462</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1785.68009831996</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1347.537625503383</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1347.537625503383</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>913.7628806616781</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>485.8954510708858</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>84.49761969414971</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035995</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035995</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035995</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.265792505214</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2211.979668804867</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>756.8711332819981</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>756.8711332819981</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>756.8711332819981</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>756.8711332819981</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O15" t="n">
-        <v>756.8711332819981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1198.638436058354</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1066.535824598178</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C16" t="n">
-        <v>893.9741130814026</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D16" t="n">
-        <v>728.0961202829253</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E16" t="n">
-        <v>558.3381165336625</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6310624954187</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212464</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.379401819793</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.499955398248</v>
+        <v>4845.744745822809</v>
       </c>
       <c r="U16" t="n">
-        <v>2290.147781212922</v>
+        <v>4567.311745075915</v>
       </c>
       <c r="V16" t="n">
-        <v>2003.192273083353</v>
+        <v>4280.356236946345</v>
       </c>
       <c r="W16" t="n">
-        <v>1731.165868669644</v>
+        <v>4008.329832532637</v>
       </c>
       <c r="X16" t="n">
-        <v>1485.774114003057</v>
+        <v>3762.938077866049</v>
       </c>
       <c r="Y16" t="n">
-        <v>1258.354443317165</v>
+        <v>3535.518407180158</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835213</v>
@@ -5501,37 +5503,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.807784200424</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436402</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5558,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>4455.130296812566</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O18" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5707,16 +5709,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5740,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>356.7918199602176</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M20" t="n">
-        <v>1612.575493976557</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2738.306477413004</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3718.48614398331</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4546.796018816706</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5093.294804775302</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5838,19 +5840,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>414.500552094942</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.560997133398</v>
+        <v>790.3368563937565</v>
       </c>
       <c r="C22" t="n">
-        <v>838.9992856166232</v>
+        <v>617.7751448769815</v>
       </c>
       <c r="D22" t="n">
-        <v>673.1212928181459</v>
+        <v>451.8971520785042</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292414</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942909976</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5911,49 +5913,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800065975</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745585</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955472</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113116</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338898</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530924</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878944</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176941</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755396</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008501</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878931</v>
       </c>
       <c r="W22" t="n">
-        <v>1676.191041204865</v>
+        <v>1454.966900465223</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.799286538277</v>
+        <v>1209.575145798636</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.379615852385</v>
+        <v>982.1554751127437</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,28 +6065,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759167</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C25" t="n">
-        <v>3184.458419759167</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>3018.58042696069</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>2901.651581209376</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2724.944527171132</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.070376373911</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244342</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830633</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164046</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478154</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6229,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>926.8933538057271</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2001.953320058587</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M26" t="n">
-        <v>3159.001155269137</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N26" t="n">
-        <v>4284.732138705584</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O26" t="n">
         <v>4284.732138705584</v>
@@ -6306,22 +6308,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2642.287896536276</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2396.408450114731</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6549,10 +6551,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1068.769857140658</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U31" t="n">
-        <v>2292.381813755403</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V31" t="n">
-        <v>2005.426305625833</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W31" t="n">
-        <v>1733.399901212125</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X31" t="n">
-        <v>1488.008146545537</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y31" t="n">
-        <v>1260.588475859645</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>205.200085969294</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1039.550377927472</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2114.610344180331</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3271.658179390882</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,10 +6788,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="35">
@@ -6935,49 +6937,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136696</v>
@@ -7017,25 +7019,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>287.8657185439749</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N36" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573035</v>
+        <v>1141.396843814754</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562604</v>
+        <v>968.8351322979789</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>802.9571394995016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>633.1991357502388</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>456.4920817119951</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>290.9008067378227</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>150.9986324281973</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1978.07327505821</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1706.046870644502</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.655115977914</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1233.235445292023</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7172,40 +7174,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.4836598467</v>
@@ -7214,10 +7216,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.803889081883</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M39" t="n">
-        <v>1056.803889081883</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.803889081883</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.99296709327</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1812.24883465911</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1374.106361842533</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>938.1965770169779</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>504.4218321752731</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>76.55440258448085</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>76.13761321162086</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L41" t="n">
-        <v>1018.340576705429</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1960.543540199237</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2864.677697087235</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3806.880660581043</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3806.880660581043</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3470.83244685402</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3065.976992265054</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2646.834528844365</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2238.548405144018</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.17381292742493</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>400.7321378936373</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2136293346052</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6519178178302</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7739250193529</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0159212700901</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>79.30886723184634</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745694</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.258586696244</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.82558594935</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.87007781978</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.843673406072</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.451918739484</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0322480535924</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2213.229876662986</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1775.08740384641</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1339.177619020854</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>76.13761321162086</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1018.340576705429</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>1960.543540199237</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N44" t="n">
-        <v>2902.746503693045</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2902.746503693045</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3503.161559637919</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3503.161559637919</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3098.306105048952</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3047.815570848241</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2639.529447147894</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1246.482777817489</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.195773823502</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6340623067273</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>816.75606950825</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589872</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207434</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2091.852222308677</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2091.852222308677</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1819.825817894969</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1574.434063228381</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1347.01439254249</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8064,13 +8066,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>407.1525905495951</v>
+        <v>72.80589558611268</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8376,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>404.6372579062464</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8529,13 +8531,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,19 +8619,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.41372909529082</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P15" t="n">
-        <v>446.2295987639961</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,10 +9181,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>19.94667551886869</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3936483072347</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>597.4989238114802</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>832.9621348837854</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9954,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>103.9790360591055</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>597.4989238114802</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>913.2668251393918</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949907263</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>190.3851577538853</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>497.8733301746879</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.41537787475005</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>73.62918697961743</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3750680726437</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.146865729423325</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>141.6500182959529</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.7958207444148</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>197.8082562505567</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>140.7232059832939</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>52.30086641796933</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>102.9863699957348</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>39.52293549722795</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>248.5691704774793</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.7232059832939</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>5.148518520150077</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>26.30304897575917</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>208.2197249473397</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>364.9654099277781</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474121.6616929008</v>
+        <v>480462.8229045384</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474121.6616929008</v>
+        <v>481604.5629275012</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394685.2424640405</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394685.2424640405</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488145.5660558796</v>
+        <v>488145.5660558797</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>488145.5660558796</v>
+        <v>488145.5660558795</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>488145.5660558797</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488145.5660558797</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394685.2424640404</v>
+        <v>488145.5660558797</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394685.2424640404</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26322,19 @@
         <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="F2" t="n">
-        <v>383386.9136976225</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236168</v>
       </c>
       <c r="I2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="J2" t="n">
         <v>474171.825723617</v>
@@ -26347,13 +26349,13 @@
         <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
+        <v>474171.8257236169</v>
+      </c>
+      <c r="O2" t="n">
         <v>474171.8257236172</v>
       </c>
-      <c r="O2" t="n">
-        <v>383386.9136976224</v>
-      </c>
       <c r="P2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501643</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998251</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877273</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622105</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947849</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>33249.55378461169</v>
+        <v>41122.95192991259</v>
       </c>
       <c r="F4" t="n">
-        <v>33249.55378461169</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991259</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26453,13 @@
         <v>41122.95192991273</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>33249.55378461169</v>
+        <v>41122.95192991276</v>
       </c>
       <c r="P4" t="n">
-        <v>33249.55378461169</v>
+        <v>41122.95192991275</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800263</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93351.9660486221</v>
+        <v>93351.96604862213</v>
       </c>
       <c r="C6" t="n">
-        <v>235543.2667083319</v>
+        <v>197253.4414035637</v>
       </c>
       <c r="D6" t="n">
-        <v>235543.2667083321</v>
+        <v>257408.720550723</v>
       </c>
       <c r="E6" t="n">
-        <v>134795.4789500749</v>
+        <v>172975.5259668621</v>
       </c>
       <c r="F6" t="n">
-        <v>292272.7738721789</v>
+        <v>355330.6351879119</v>
       </c>
       <c r="G6" t="n">
-        <v>265830.8265815426</v>
+        <v>355330.6351879117</v>
       </c>
       <c r="H6" t="n">
-        <v>355330.6351879118</v>
+        <v>355330.6351879117</v>
       </c>
       <c r="I6" t="n">
-        <v>355330.6351879118</v>
+        <v>355330.6351879119</v>
       </c>
       <c r="J6" t="n">
         <v>244316.1698429216</v>
       </c>
       <c r="K6" t="n">
-        <v>355330.6351879118</v>
+        <v>302284.7805491391</v>
       </c>
       <c r="L6" t="n">
-        <v>355330.6351879118</v>
+        <v>345938.3334612897</v>
       </c>
       <c r="M6" t="n">
-        <v>223894.3880304923</v>
+        <v>203130.4642499241</v>
       </c>
       <c r="N6" t="n">
+        <v>355330.6351879117</v>
+      </c>
+      <c r="O6" t="n">
         <v>355330.6351879119</v>
       </c>
-      <c r="O6" t="n">
-        <v>292272.7738721789</v>
-      </c>
       <c r="P6" t="n">
-        <v>292272.7738721789</v>
+        <v>355330.6351879117</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939257</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939257</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939257</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>268.4237426156385</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>248.8395458199777</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>54.46933477097869</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>66.44463622019907</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>72.85097093681958</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>41.77288861755214</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3737032554555</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27831,7 +27833,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>12.02094069548804</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>261.168913158443</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>326.6295051306851</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>139.8083015972137</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34784,13 +34786,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>407.1525905495951</v>
+        <v>72.80589558611268</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>404.6372579062464</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35249,13 +35251,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35339,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.41372909529082</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P15" t="n">
-        <v>446.2295987639961</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,10 +35901,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>19.94667551886869</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3936483072347</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,19 +36281,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960889</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>597.4989238114802</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>832.9621348837854</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36607,7 +36609,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>103.9790360591055</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37081,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>597.4989238114802</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>913.2668251393918</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949907263</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080449</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>190.3851577538853</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638365</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>497.8733301746879</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2242053.991151115</v>
+        <v>2241528.808782082</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916861</v>
+        <v>278692.0725916854</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>165.3373054727724</v>
+        <v>45.77764296561946</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.4310977608185</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>356.5860264564682</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.104482075371229</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1062,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>84.8224988565668</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>272.0650123527858</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1135,19 +1135,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>32.36127543482664</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800607</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.99078056551</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1581,10 +1581,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>81.49380289235384</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>191.0148624863812</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186.7535668023739</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1846,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791319859</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1903,10 +1903,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>86.91406253606259</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2098,10 +2098,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2140,16 +2140,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480015835</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>30.11288841831338</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>100.7890476991254</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>48.25041423584346</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>155.4300230108086</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>162.91190519162</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170844</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>67.42894579208605</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.990780565511</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>165.8403702950054</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.7796263806116</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>1608.521390647508</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1133.426975905747</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>714.2845124850579</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.0387928251154</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>741.6032097962661</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>741.6032097962661</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>741.6032097962661</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.499575293582</v>
+        <v>2073.031189930082</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.397506517409</v>
+        <v>1634.888717113505</v>
       </c>
       <c r="D5" t="n">
-        <v>838.4877216918535</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>478.2998161802694</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>50.43238658947715</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947715</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947715</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423951</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087175</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717427</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717427</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717427</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762206</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720801</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473858</v>
+        <v>2519.49359000378</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473858</v>
+        <v>2519.49359000378</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473858</v>
+        <v>2519.49359000378</v>
       </c>
       <c r="V5" t="n">
-        <v>2159.002379407684</v>
+        <v>2519.49359000378</v>
       </c>
       <c r="W5" t="n">
-        <v>1754.146924818717</v>
+        <v>2518.678539455218</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.004461398028</v>
+        <v>2099.536076034528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.758741738086</v>
+        <v>2095.290356374586</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326468</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993476</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>401.0543847161471</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760927</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760927</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760927</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760927</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760927</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>614.4535569886648</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>441.8918454718897</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>276.0138526734124</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>276.0138526734124</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>276.0138526734124</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>276.0138526734124</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>136.111678363787</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606128</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>743.4007229285738</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255758</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413402</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639184</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609525</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.20150817923</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477226</v>
+        <v>2362.377960771849</v>
       </c>
       <c r="T7" t="n">
-        <v>2340.960139477226</v>
+        <v>2116.498514350304</v>
       </c>
       <c r="U7" t="n">
-        <v>2340.960139477226</v>
+        <v>1838.065513603409</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1551.11000547384</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1279.083601060131</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606238</v>
+        <v>1033.691846393544</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>806.272175707652</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.7890572316419</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554692</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703178</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4807,49 +4807,49 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2637.372669426552</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2232.517214837585</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.374751416896</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.08862771655</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829152</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4986,13 +4986,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
         <v>2356.071333755254</v>
@@ -5029,28 +5029,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5077,16 +5077,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257735</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837046</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
         <v>190.9207894961043</v>
@@ -5214,37 +5214,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T13" t="n">
-        <v>2455.944287558408</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U13" t="n">
-        <v>2177.511286811513</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V13" t="n">
-        <v>1890.555778681944</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.529374268236</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X13" t="n">
-        <v>1373.137619601648</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2334.36864173419</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>3460.099625170637</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O14" t="n">
-        <v>4440.279291740943</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5314,13 +5314,13 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136697</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>5091.624192244353</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>4845.744745822809</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>4567.311745075915</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>4280.356236946345</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>4008.329832532637</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>3762.938077866049</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>3535.518407180158</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.807784200424</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436402</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5691,34 +5691,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1926.156830648849</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1654.13042623514</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>356.7918199602176</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937565</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769815</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>451.8971520785042</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292414</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942909976</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5913,49 +5913,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800065975</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745585</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955472</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113116</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338898</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.72767530924</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173572</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878944</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176941</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755396</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008501</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878931</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465223</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798636</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127437</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,28 +6065,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1039.174348374283</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6192,7 +6192,7 @@
         <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1230.99296709327</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.77365348828</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698831</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3365.117609755799</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3026.677905440546</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2680.21284765304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3556.936228474786</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>205.200085969294</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2114.610344180331</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3271.658179390882</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.396843814754</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C37" t="n">
-        <v>968.8351322979789</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D37" t="n">
-        <v>802.9571394995016</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>633.1991357502388</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>456.4920817119951</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>290.9008067378227</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>150.9986324281973</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4945.891623321967</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7210,7 +7210,7 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1036.216302815308</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>863.6545912985331</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>697.7765985000558</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1228.034921534295</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716205</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731432</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238804</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856366</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7575,13 +7575,13 @@
         <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745694</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338909</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173583</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173583</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752038</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U43" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V43" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="44">
@@ -7654,34 +7654,34 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.913654892426</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
         <v>4187.4836598467</v>
@@ -7690,7 +7690,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136696</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716164</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3149733731391</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E46" t="n">
-        <v>303.5569696238763</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>126.8499155856325</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7851,7 +7851,7 @@
         <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,10 +8063,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8148,13 +8148,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684646</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611268</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684644</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684644</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741799</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>404.6372579062464</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>531.8762684426497</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -8938,19 +8938,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>679.5583048465032</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>257.101999686301</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9895,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>103.9790360591055</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,16 +10357,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10843,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>168.8387779969835</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463125</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>84.63380825304455</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.146865729423325</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444148</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>140.7232059832939</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>63.43016517136714</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.52293549722795</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>113.8761173587628</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>5.148518520150077</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>208.2197249473397</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.220053416764756</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>488145.5660558796</v>
+        <v>488145.5660558797</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>488145.5660558795</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>488145.5660558796</v>
+        <v>488145.5660558795</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488145.5660558796</v>
+        <v>488145.5660558795</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488145.5660558796</v>
+        <v>488145.5660558795</v>
       </c>
     </row>
     <row r="14">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="C2" t="n">
         <v>482532.5879013676</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="F2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.8257236168</v>
+        <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
         <v>474171.8257236171</v>
@@ -26343,19 +26343,19 @@
         <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="M2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
+        <v>474171.825723617</v>
+      </c>
+      <c r="O2" t="n">
+        <v>474171.8257236171</v>
+      </c>
+      <c r="P2" t="n">
         <v>474171.8257236169</v>
-      </c>
-      <c r="O2" t="n">
-        <v>474171.8257236172</v>
-      </c>
-      <c r="P2" t="n">
-        <v>474171.825723617</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501643</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998251</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877273</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622105</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,22 +26420,22 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>146735.1647947849</v>
+        <v>146735.1647947851</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>41122.95192991259</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991259</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26450,16 +26450,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991276</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991275</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800263</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26508,10 +26508,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93351.96604862213</v>
+        <v>93351.9660486221</v>
       </c>
       <c r="C6" t="n">
-        <v>197253.4414035637</v>
+        <v>197253.4414035639</v>
       </c>
       <c r="D6" t="n">
-        <v>257408.720550723</v>
+        <v>257408.7205507225</v>
       </c>
       <c r="E6" t="n">
-        <v>172975.5259668621</v>
+        <v>172952.3016274794</v>
       </c>
       <c r="F6" t="n">
-        <v>355330.6351879119</v>
+        <v>355307.4108485291</v>
       </c>
       <c r="G6" t="n">
-        <v>355330.6351879117</v>
+        <v>355307.4108485292</v>
       </c>
       <c r="H6" t="n">
-        <v>355330.6351879117</v>
+        <v>355307.4108485291</v>
       </c>
       <c r="I6" t="n">
-        <v>355330.6351879119</v>
+        <v>355307.4108485292</v>
       </c>
       <c r="J6" t="n">
-        <v>244316.1698429216</v>
+        <v>244292.945503539</v>
       </c>
       <c r="K6" t="n">
-        <v>302284.7805491391</v>
+        <v>302261.5562097568</v>
       </c>
       <c r="L6" t="n">
-        <v>345938.3334612897</v>
+        <v>345915.1091219067</v>
       </c>
       <c r="M6" t="n">
-        <v>203130.4642499241</v>
+        <v>203107.2399105415</v>
       </c>
       <c r="N6" t="n">
-        <v>355330.6351879117</v>
+        <v>355307.4108485291</v>
       </c>
       <c r="O6" t="n">
-        <v>355330.6351879119</v>
+        <v>355307.4108485292</v>
       </c>
       <c r="P6" t="n">
-        <v>355330.6351879117</v>
+        <v>355307.410848529</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684644</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939257</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939257</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939257</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>268.4237426156385</v>
+        <v>387.9834051227915</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27444,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.46933477097869</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27548,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>72.85097093681958</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>80.71087300263014</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,10 +27675,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.950850876504617</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>12.02094069548804</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>326.6295051306851</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,10 +34783,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34868,13 +34868,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684646</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611268</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684644</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684644</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741799</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>404.6372579062464</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>531.8762684426497</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35658,19 +35658,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>679.5583048465032</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36059,7 +36059,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>257.101999686301</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960889</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36615,10 +36615,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>103.9790360591055</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>168.8387779969835</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463125</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080449</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
